--- a/Fat_Subtype.xlsx
+++ b/Fat_Subtype.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Annotation" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,9 @@
     <sheet name="Immune" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Endothelial" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Annotation_Markers" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Immune_Markers" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Endothelial_Markers" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="FAP_Markers" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="184">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -276,6 +279,309 @@
   </si>
   <si>
     <t xml:space="preserve">MRC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEGR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITIH5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEAD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL4A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL4A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLEC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS4A6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F13A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPOR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLFN12L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL11B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC24A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VWA5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYO1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOCK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIP2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRCA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FANCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDFY4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENOX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL11A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDH13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD300LG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABLIM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIAA1217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPARG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSTRIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINC02511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL1RAPL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPY19L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNAB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL25A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEKHG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLCB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINC00639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEGFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCAN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RYR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBPJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBM47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBXAS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYFIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCN9A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFAIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRPS6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC5A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMK1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMCN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERBB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDE3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUCY1A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADFRD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPLP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEOX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR2F2-AS1</t>
   </si>
 </sst>
 </file>
@@ -405,6 +711,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -415,7 +738,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -487,6 +810,829 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +2048,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1040,7 +2186,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1157,7 +2303,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1317,7 +2463,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1539,4 +2685,482 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.28"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>